--- a/basic-forms/forms/app/countdown_timer.xlsx
+++ b/basic-forms/forms/app/countdown_timer.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -266,43 +266,13 @@
     <t xml:space="preserve">page</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
     <t xml:space="preserve">intro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">This form demonstrates several usages of the custom CHT [Countdown Timer Widget](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
+    <t xml:space="preserve">This form demonstrates several usages of the custom CHT [Countdown Timer Widget](https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer).</t>
   </si>
   <si>
     <t xml:space="preserve">acknowledge</t>
@@ -559,7 +529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -577,6 +547,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,7 +834,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,7 +842,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.8"/>
@@ -913,11 +887,8 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -925,30 +896,30 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>15</v>
@@ -959,31 +930,31 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:I9986 A13:B13 D13:I13 A2:I12">
+  <conditionalFormatting sqref="A14:I9986 A13:B13 D13:I13 A2:I12 C13">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1005,31 +976,9 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C9986 C2:C12">
+  <conditionalFormatting sqref="C14:C9986 C2:C12 C13">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A13="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A13="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A13="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A13="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A13), NOT(ISBLANK(C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C13),NOT(OR(ISBLANK($A13),$A13="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -1047,7 +996,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId2" location="countdown-timer" display="https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer"/>
+    <hyperlink ref="C4" r:id="rId2" location="countdown-timer" display="This form demonstrates several usages of the custom CHT [Countdown Timer Widget](https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer)."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1073,45 +1022,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20251119132146</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250422111649</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/countdown_timer.xlsx
+++ b/basic-forms/forms/app/countdown_timer.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -183,38 +183,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -311,9 +297,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -324,9 +307,6 @@
   </si>
   <si>
     <t xml:space="preserve">Countdown Timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countdown_timer</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -345,7 +325,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -385,13 +365,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -834,7 +807,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -954,7 +927,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:I9986 A13:B13 D13:I13 A2:I12 C13">
+  <conditionalFormatting sqref="A2:I9986">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -976,7 +949,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C9986 C2:C12 C13">
+  <conditionalFormatting sqref="C2:C9986">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
@@ -1014,18 +987,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,26 +1013,20 @@
       <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114091947</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119132146</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/countdown_timer.xlsx
+++ b/basic-forms/forms/app/countdown_timer.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -183,38 +183,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -266,43 +252,13 @@
     <t xml:space="preserve">page</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
     <t xml:space="preserve">intro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">This form demonstrates several usages of the custom CHT [Countdown Timer Widget](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
+    <t xml:space="preserve">This form demonstrates several usages of the custom CHT [Countdown Timer Widget](https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer).</t>
   </si>
   <si>
     <t xml:space="preserve">acknowledge</t>
@@ -341,9 +297,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -354,9 +307,6 @@
   </si>
   <si>
     <t xml:space="preserve">Countdown Timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countdown_timer</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -375,7 +325,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -415,13 +365,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -559,7 +502,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -577,6 +520,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,7 +807,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,7 +815,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.8"/>
@@ -913,11 +860,8 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -925,30 +869,30 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>15</v>
@@ -959,31 +903,31 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:I9986 A13:B13 D13:I13 A2:I12">
+  <conditionalFormatting sqref="A2:I9986">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1005,31 +949,9 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C9986 C2:C12">
+  <conditionalFormatting sqref="C2:C9986">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A13="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A13="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A13="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A13="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A13), NOT(ISBLANK(C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C13),NOT(OR(ISBLANK($A13),$A13="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -1047,7 +969,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId2" location="countdown-timer" display="https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer"/>
+    <hyperlink ref="C4" r:id="rId2" location="countdown-timer" display="This form demonstrates several usages of the custom CHT [Countdown Timer Widget](https://docs.communityhealthtoolkit.org/building/forms/app/#countdown-timer)."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1065,53 +987,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114091947</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250422111649</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
